--- a/src/main/java/com/LilyCargo/TestData/TC1 Upload Data-20 Records (-1 Issue HS).xlsx
+++ b/src/main/java/com/LilyCargo/TestData/TC1 Upload Data-20 Records (-1 Issue HS).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17685"/>
+    <workbookView windowWidth="22188" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="131">
   <si>
     <t>No FORMULA's HERE, only ACTUAL VALUES!</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Nvalue Euro</t>
+    <t>INV Value</t>
   </si>
   <si>
     <t>Vat Perc%</t>
@@ -65,6 +65,9 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>DG UN-Code</t>
+  </si>
+  <si>
     <t>ITEM ID</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>VAT158</t>
+  </si>
+  <si>
     <t>B0D9JQ916M</t>
   </si>
   <si>
@@ -170,6 +176,9 @@
     <t>Office Products</t>
   </si>
   <si>
+    <t>VAT159</t>
+  </si>
+  <si>
     <t>B08HMX38PD</t>
   </si>
   <si>
@@ -185,6 +194,9 @@
     <t>Home &amp; Kitchen</t>
   </si>
   <si>
+    <t>VAT160</t>
+  </si>
+  <si>
     <t>B08HMX35PD</t>
   </si>
   <si>
@@ -194,6 +206,9 @@
     <t>Automotive Accessories</t>
   </si>
   <si>
+    <t>VAT161</t>
+  </si>
+  <si>
     <t>B08HMX26PD</t>
   </si>
   <si>
@@ -204,6 +219,9 @@
   </si>
   <si>
     <t>Cell Phones Accessories</t>
+  </si>
+  <si>
+    <t>VAT162</t>
   </si>
   <si>
     <t>B08HMX29PD</t>
@@ -1087,11 +1105,11 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1110,7 +1128,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1450,52 +1468,52 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ297"/>
+  <dimension ref="A1:AK297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="52.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
-    <col min="4" max="5" width="8.57142857142857" customWidth="1"/>
-    <col min="6" max="6" width="6.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
-    <col min="8" max="8" width="12.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="10.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="9.42857142857143" customWidth="1"/>
-    <col min="11" max="11" width="8.28571428571429" customWidth="1"/>
-    <col min="12" max="12" width="5.14285714285714" customWidth="1"/>
-    <col min="13" max="13" width="12.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="14.2857142857143" customWidth="1"/>
-    <col min="15" max="15" width="13.1428571428571" customWidth="1"/>
-    <col min="16" max="16" width="15.5714285714286" customWidth="1"/>
-    <col min="17" max="17" width="19.5714285714286" customWidth="1"/>
-    <col min="18" max="18" width="26.8571428571429" customWidth="1"/>
-    <col min="19" max="19" width="14.1428571428571" customWidth="1"/>
-    <col min="20" max="20" width="13.5714285714286" customWidth="1"/>
-    <col min="21" max="21" width="23.2857142857143" customWidth="1"/>
-    <col min="22" max="22" width="12.4285714285714" customWidth="1"/>
-    <col min="23" max="23" width="11.7142857142857" customWidth="1"/>
-    <col min="24" max="24" width="16.8571428571429" customWidth="1"/>
-    <col min="25" max="25" width="26.7142857142857" customWidth="1"/>
-    <col min="26" max="26" width="16.2857142857143" customWidth="1"/>
-    <col min="27" max="27" width="14.2857142857143" customWidth="1"/>
-    <col min="28" max="28" width="13.1428571428571" customWidth="1"/>
-    <col min="29" max="29" width="13.7142857142857" customWidth="1"/>
-    <col min="30" max="30" width="12.5714285714286" customWidth="1"/>
-    <col min="31" max="31" width="10.4285714285714" customWidth="1"/>
-    <col min="32" max="32" width="15.5714285714286" customWidth="1"/>
-    <col min="33" max="33" width="16.1428571428571" customWidth="1"/>
-    <col min="34" max="34" width="15" customWidth="1"/>
-    <col min="35" max="35" width="25" customWidth="1"/>
-    <col min="36" max="36" width="14.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="5.13888888888889" customWidth="1"/>
+    <col min="2" max="2" width="52.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="11.712962962963" customWidth="1"/>
+    <col min="4" max="5" width="8.57407407407407" customWidth="1"/>
+    <col min="6" max="6" width="6.13888888888889" customWidth="1"/>
+    <col min="7" max="7" width="9.28703703703704" customWidth="1"/>
+    <col min="8" max="8" width="12.5740740740741" customWidth="1"/>
+    <col min="9" max="9" width="10.4259259259259" customWidth="1"/>
+    <col min="10" max="10" width="9.42592592592593" customWidth="1"/>
+    <col min="11" max="12" width="8.28703703703704" customWidth="1"/>
+    <col min="13" max="13" width="5.13888888888889" customWidth="1"/>
+    <col min="14" max="14" width="12.1388888888889" customWidth="1"/>
+    <col min="15" max="15" width="14.287037037037" customWidth="1"/>
+    <col min="16" max="16" width="13.1388888888889" customWidth="1"/>
+    <col min="17" max="17" width="15.5740740740741" customWidth="1"/>
+    <col min="18" max="18" width="19.5740740740741" customWidth="1"/>
+    <col min="19" max="19" width="26.8611111111111" customWidth="1"/>
+    <col min="20" max="20" width="14.1388888888889" customWidth="1"/>
+    <col min="21" max="21" width="13.5740740740741" customWidth="1"/>
+    <col min="22" max="22" width="23.287037037037" customWidth="1"/>
+    <col min="23" max="23" width="12.4259259259259" customWidth="1"/>
+    <col min="24" max="24" width="11.712962962963" customWidth="1"/>
+    <col min="25" max="25" width="16.8611111111111" customWidth="1"/>
+    <col min="26" max="26" width="26.712962962963" customWidth="1"/>
+    <col min="27" max="27" width="16.287037037037" customWidth="1"/>
+    <col min="28" max="28" width="14.287037037037" customWidth="1"/>
+    <col min="29" max="29" width="13.1388888888889" customWidth="1"/>
+    <col min="30" max="30" width="13.712962962963" customWidth="1"/>
+    <col min="31" max="31" width="12.5740740740741" customWidth="1"/>
+    <col min="32" max="32" width="10.4259259259259" customWidth="1"/>
+    <col min="33" max="33" width="15.5740740740741" customWidth="1"/>
+    <col min="34" max="34" width="16.1388888888889" customWidth="1"/>
+    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="36" max="36" width="25" customWidth="1"/>
+    <col min="37" max="37" width="14.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,10 +1534,10 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="1"/>
+      <c r="T1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
@@ -1536,8 +1554,9 @@
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
       <c r="AJ1" s="11"/>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="11"/>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1592,7 +1611,7 @@
       <c r="R2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="11" t="s">
@@ -1646,11 +1665,14 @@
       <c r="AJ2" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" ht="30" spans="1:36">
+      <c r="AK2" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:37">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>3919908099</v>
@@ -1674,36 +1696,39 @@
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="N3" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="O3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="AJ3" s="13">
+      <c r="P3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="AK3" s="13">
         <v>25.655542</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:18">
+    <row r="4" ht="28.8" spans="1:19">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>3919908099</v>
@@ -1727,35 +1752,38 @@
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" ht="30" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" ht="28.8" spans="1:19">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
         <v>3924100090</v>
@@ -1779,35 +1807,38 @@
         <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="R5" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2">
         <v>3926909790</v>
@@ -1831,35 +1862,38 @@
         <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <v>3926909790</v>
@@ -1883,35 +1917,38 @@
         <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" ht="30" spans="1:18">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" ht="28.8" spans="1:19">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2">
         <v>3926909790</v>
@@ -1935,35 +1972,36 @@
         <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" ht="30" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" ht="28.8" spans="1:19">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2">
         <v>4201000090</v>
@@ -1987,35 +2025,36 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2">
         <v>4908900000</v>
@@ -2039,33 +2078,34 @@
         <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" t="s">
+      <c r="O10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2">
         <v>4909000000</v>
@@ -2089,33 +2129,34 @@
         <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="P11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2">
         <v>6111309000</v>
@@ -2139,35 +2180,36 @@
         <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18">
+        <v>82</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2">
         <v>6113009000</v>
@@ -2191,35 +2233,36 @@
         <v>21</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" ht="30" spans="1:18">
+        <v>86</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" ht="28.8" spans="1:19">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2">
         <v>6403999390</v>
@@ -2243,35 +2286,36 @@
         <v>21</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>43</v>
+        <v>90</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2">
         <v>6704900000</v>
@@ -2295,35 +2339,36 @@
         <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" ht="30" spans="1:18">
+        <v>93</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" ht="28.8" spans="1:19">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2">
         <v>7117900000</v>
@@ -2347,35 +2392,36 @@
         <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>43</v>
+        <v>97</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>50</v>
-      </c>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2">
         <v>8509900000</v>
@@ -2399,35 +2445,36 @@
         <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" ht="30" spans="1:18">
+        <v>100</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" ht="28.8" spans="1:19">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2">
         <v>8518900000</v>
@@ -2451,35 +2498,36 @@
         <v>21</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>43</v>
+        <v>104</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" ht="30" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" ht="28.8" spans="1:19">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2">
         <v>8518900000</v>
@@ -2503,35 +2551,36 @@
         <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>43</v>
+        <v>107</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" ht="30" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" ht="28.8" spans="1:19">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2">
         <v>9031808000</v>
@@ -2555,35 +2604,36 @@
         <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>43</v>
+        <v>110</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" ht="30" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" ht="28.8" spans="1:19">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2">
         <v>9405499090</v>
@@ -2607,35 +2657,36 @@
         <v>21</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>43</v>
+        <v>113</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>50</v>
-      </c>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" ht="30" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" t="s">
+        <v>53</v>
+      </c>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" ht="28.8" spans="1:19">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2">
         <v>9405499090</v>
@@ -2659,35 +2710,36 @@
         <v>21</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>43</v>
+        <v>116</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" ht="30" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" t="s">
+        <v>53</v>
+      </c>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" ht="28.8" spans="1:19">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C23" s="2">
         <v>9503008190</v>
@@ -2711,35 +2763,36 @@
         <v>21</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>43</v>
+        <v>119</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>50</v>
-      </c>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" ht="30" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" t="s">
+        <v>53</v>
+      </c>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" ht="28.8" spans="1:19">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2">
         <v>9505109000</v>
@@ -2763,33 +2816,34 @@
         <v>21</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>43</v>
+        <v>122</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" t="s">
         <v>45</v>
       </c>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" ht="30" spans="1:18">
+      <c r="P24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" ht="28.8" spans="1:19">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2">
         <v>9506919000</v>
@@ -2813,35 +2867,36 @@
         <v>21</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>43</v>
+        <v>125</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>50</v>
-      </c>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2">
         <v>9606220000</v>
@@ -2865,32 +2920,33 @@
         <v>21</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O26" t="s">
-        <v>124</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>50</v>
-      </c>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18">
+        <v>128</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R26" t="s">
+        <v>53</v>
+      </c>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2904,13 +2960,14 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2924,13 +2981,14 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2944,13 +3002,14 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2964,13 +3023,14 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2984,13 +3044,14 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3004,13 +3065,14 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3024,13 +3086,14 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3044,13 +3107,14 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3064,13 +3128,14 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3084,13 +3149,14 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3104,13 +3170,14 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3124,13 +3191,14 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3144,13 +3212,14 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3164,13 +3233,14 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3184,13 +3254,14 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3204,13 +3275,14 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="9"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="5"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3224,13 +3296,14 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="9"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3244,13 +3317,14 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="9"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3264,13 +3338,14 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="10"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="Q45" s="5"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3284,13 +3359,14 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="10"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="Q46" s="5"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3304,13 +3380,14 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="10"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="Q47" s="5"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3324,13 +3401,14 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="10"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="Q48" s="5"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3344,13 +3422,14 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="10"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="Q49" s="5"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3364,13 +3443,14 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="10"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="Q50" s="5"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3384,13 +3464,14 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="10"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="Q51" s="5"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3404,13 +3485,14 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="10"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="Q52" s="5"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3424,13 +3506,14 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="10"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="Q53" s="5"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3444,13 +3527,14 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="10"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="Q54" s="5"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3464,13 +3548,14 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="10"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="Q55" s="5"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3484,13 +3569,14 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="10"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="Q56" s="5"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3504,13 +3590,14 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="10"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="Q57" s="5"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3524,13 +3611,14 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="10"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="Q58" s="5"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3544,13 +3632,14 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="10"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="Q59" s="5"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3564,13 +3653,14 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="10"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="Q60" s="5"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3584,13 +3674,14 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="10"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="Q61" s="5"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3604,13 +3695,14 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="10"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="Q62" s="5"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3624,13 +3716,14 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="10"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="Q63" s="5"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3644,13 +3737,14 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="10"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="Q64" s="5"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3664,13 +3758,14 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="10"/>
       <c r="P65" s="5"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="Q65" s="5"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3684,13 +3779,14 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="10"/>
       <c r="P66" s="5"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="Q66" s="5"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3704,13 +3800,14 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="10"/>
       <c r="P67" s="5"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="Q67" s="5"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3724,13 +3821,14 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="10"/>
       <c r="P68" s="5"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="Q68" s="5"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3744,13 +3842,14 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="10"/>
       <c r="P69" s="5"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="Q69" s="5"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="5"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3764,13 +3863,14 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="10"/>
       <c r="P70" s="5"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="Q70" s="5"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="5"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3784,13 +3884,14 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="10"/>
       <c r="P71" s="5"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="Q71" s="5"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="5"/>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3804,13 +3905,14 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="10"/>
       <c r="P72" s="5"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="Q72" s="5"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="5"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3824,13 +3926,14 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="10"/>
       <c r="P73" s="5"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="5"/>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="Q73" s="5"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="5"/>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3844,13 +3947,14 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="10"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="Q74" s="5"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="5"/>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3864,13 +3968,14 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="10"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="Q75" s="5"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="5"/>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3884,13 +3989,14 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="10"/>
       <c r="P76" s="5"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="5"/>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="Q76" s="5"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="5"/>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3904,13 +4010,14 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="10"/>
       <c r="P77" s="5"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="Q77" s="5"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="5"/>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3924,13 +4031,14 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="10"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="Q78" s="5"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="5"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3944,13 +4052,14 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="10"/>
       <c r="P79" s="5"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="Q79" s="5"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="5"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3964,13 +4073,14 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="10"/>
       <c r="P80" s="5"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="Q80" s="5"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="5"/>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3984,13 +4094,14 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="10"/>
       <c r="P81" s="5"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="Q81" s="5"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4004,13 +4115,14 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="10"/>
       <c r="P82" s="5"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="Q82" s="5"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="5"/>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -4024,13 +4136,14 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="10"/>
       <c r="P83" s="5"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="Q83" s="5"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="5"/>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4044,13 +4157,14 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="10"/>
       <c r="P84" s="5"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="Q84" s="5"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="5"/>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4064,13 +4178,14 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="10"/>
       <c r="P85" s="5"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="Q85" s="5"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="5"/>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -4084,13 +4199,14 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="10"/>
       <c r="P86" s="5"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="5"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="Q86" s="5"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4104,13 +4220,14 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="10"/>
       <c r="P87" s="5"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="5"/>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="Q87" s="5"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="5"/>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -4124,13 +4241,14 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="10"/>
       <c r="P88" s="5"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="Q88" s="5"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="5"/>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4144,13 +4262,14 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="10"/>
       <c r="P89" s="5"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="Q89" s="5"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="5"/>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4164,13 +4283,14 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="10"/>
       <c r="P90" s="5"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="Q90" s="5"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="5"/>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4184,13 +4304,14 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="10"/>
       <c r="P91" s="5"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="Q91" s="5"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="5"/>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -4204,13 +4325,14 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="10"/>
       <c r="P92" s="5"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="Q92" s="5"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="5"/>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4224,13 +4346,14 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="10"/>
       <c r="P93" s="5"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="Q93" s="5"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4244,13 +4367,14 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="10"/>
       <c r="P94" s="5"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="Q94" s="5"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4264,13 +4388,14 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="10"/>
       <c r="P95" s="5"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="Q95" s="5"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4284,13 +4409,14 @@
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
-      <c r="N96" s="10"/>
-      <c r="O96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="10"/>
       <c r="P96" s="5"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="5"/>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="Q96" s="5"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4304,13 +4430,14 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="10"/>
-      <c r="O97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="10"/>
       <c r="P97" s="5"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="5"/>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="Q97" s="5"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4324,13 +4451,14 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="10"/>
       <c r="P98" s="5"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="5"/>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="Q98" s="5"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4344,13 +4472,14 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="10"/>
       <c r="P99" s="5"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="5"/>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="Q99" s="5"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="5"/>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4364,13 +4493,14 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="10"/>
       <c r="P100" s="5"/>
-      <c r="Q100" s="9"/>
-      <c r="R100" s="5"/>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="Q100" s="5"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4384,13 +4514,14 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="10"/>
       <c r="P101" s="5"/>
-      <c r="Q101" s="9"/>
-      <c r="R101" s="5"/>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="Q101" s="5"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="5"/>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4404,13 +4535,14 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="10"/>
       <c r="P102" s="5"/>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="5"/>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="Q102" s="5"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4424,13 +4556,14 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
-      <c r="N103" s="10"/>
-      <c r="O103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="10"/>
       <c r="P103" s="5"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="5"/>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="Q103" s="5"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4444,13 +4577,14 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
-      <c r="N104" s="10"/>
-      <c r="O104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="10"/>
       <c r="P104" s="5"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="5"/>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="Q104" s="5"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4464,13 +4598,14 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
-      <c r="N105" s="10"/>
-      <c r="O105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="10"/>
       <c r="P105" s="5"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="5"/>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="Q105" s="5"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4484,13 +4619,14 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="10"/>
       <c r="P106" s="5"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="5"/>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="Q106" s="5"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4504,13 +4640,14 @@
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="10"/>
       <c r="P107" s="5"/>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="5"/>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="Q107" s="5"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="5"/>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4524,13 +4661,14 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
-      <c r="N108" s="10"/>
-      <c r="O108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="10"/>
       <c r="P108" s="5"/>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="5"/>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="Q108" s="5"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="5"/>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4544,13 +4682,14 @@
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="10"/>
       <c r="P109" s="5"/>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="5"/>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="Q109" s="5"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4564,13 +4703,14 @@
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="10"/>
       <c r="P110" s="5"/>
-      <c r="Q110" s="9"/>
-      <c r="R110" s="5"/>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="Q110" s="5"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="5"/>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4584,13 +4724,14 @@
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
-      <c r="N111" s="10"/>
-      <c r="O111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="10"/>
       <c r="P111" s="5"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="5"/>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="Q111" s="5"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4604,13 +4745,14 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
-      <c r="N112" s="10"/>
-      <c r="O112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="10"/>
       <c r="P112" s="5"/>
-      <c r="Q112" s="9"/>
-      <c r="R112" s="5"/>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="Q112" s="5"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4624,13 +4766,14 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
-      <c r="N113" s="10"/>
-      <c r="O113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="10"/>
       <c r="P113" s="5"/>
-      <c r="Q113" s="9"/>
-      <c r="R113" s="5"/>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="Q113" s="5"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4644,13 +4787,14 @@
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="10"/>
       <c r="P114" s="5"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="5"/>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="Q114" s="5"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4664,13 +4808,14 @@
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
-      <c r="N115" s="10"/>
-      <c r="O115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="10"/>
       <c r="P115" s="5"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="5"/>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="Q115" s="5"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="5"/>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4684,13 +4829,14 @@
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
-      <c r="N116" s="10"/>
-      <c r="O116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="10"/>
       <c r="P116" s="5"/>
-      <c r="Q116" s="9"/>
-      <c r="R116" s="5"/>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="Q116" s="5"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4704,13 +4850,14 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
-      <c r="N117" s="10"/>
-      <c r="O117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="10"/>
       <c r="P117" s="5"/>
-      <c r="Q117" s="9"/>
-      <c r="R117" s="5"/>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="Q117" s="5"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="5"/>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4724,13 +4871,14 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="10"/>
       <c r="P118" s="5"/>
-      <c r="Q118" s="9"/>
-      <c r="R118" s="5"/>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="Q118" s="5"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="5"/>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4744,13 +4892,14 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
-      <c r="N119" s="10"/>
-      <c r="O119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="10"/>
       <c r="P119" s="5"/>
-      <c r="Q119" s="9"/>
-      <c r="R119" s="5"/>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="Q119" s="5"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4764,13 +4913,14 @@
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="10"/>
       <c r="P120" s="5"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="5"/>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="Q120" s="5"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="5"/>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4784,13 +4934,14 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
-      <c r="N121" s="10"/>
-      <c r="O121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="10"/>
       <c r="P121" s="5"/>
-      <c r="Q121" s="9"/>
-      <c r="R121" s="5"/>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="Q121" s="5"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="5"/>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4804,13 +4955,14 @@
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
-      <c r="N122" s="10"/>
-      <c r="O122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="10"/>
       <c r="P122" s="5"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="5"/>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="Q122" s="5"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="5"/>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4824,13 +4976,14 @@
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
-      <c r="N123" s="10"/>
-      <c r="O123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="10"/>
       <c r="P123" s="5"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="5"/>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="Q123" s="5"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="5"/>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4844,13 +4997,14 @@
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="10"/>
       <c r="P124" s="5"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="5"/>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="Q124" s="5"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="5"/>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4864,13 +5018,14 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="10"/>
       <c r="P125" s="5"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="5"/>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="Q125" s="5"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="5"/>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4884,13 +5039,14 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
-      <c r="N126" s="10"/>
-      <c r="O126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="10"/>
       <c r="P126" s="5"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="5"/>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="Q126" s="5"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="5"/>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4904,13 +5060,14 @@
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="10"/>
       <c r="P127" s="5"/>
-      <c r="Q127" s="9"/>
-      <c r="R127" s="5"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="Q127" s="5"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="5"/>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4924,13 +5081,14 @@
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="10"/>
       <c r="P128" s="5"/>
-      <c r="Q128" s="9"/>
-      <c r="R128" s="5"/>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="Q128" s="5"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="5"/>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4944,13 +5102,14 @@
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="10"/>
       <c r="P129" s="5"/>
-      <c r="Q129" s="9"/>
-      <c r="R129" s="5"/>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="Q129" s="5"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="5"/>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4964,13 +5123,14 @@
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="10"/>
       <c r="P130" s="5"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="5"/>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="Q130" s="5"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="5"/>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4984,13 +5144,14 @@
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="10"/>
       <c r="P131" s="5"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="5"/>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="Q131" s="5"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="5"/>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5004,13 +5165,14 @@
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
-      <c r="N132" s="10"/>
-      <c r="O132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="10"/>
       <c r="P132" s="5"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="5"/>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="Q132" s="5"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="5"/>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5024,13 +5186,14 @@
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="10"/>
       <c r="P133" s="5"/>
-      <c r="Q133" s="9"/>
-      <c r="R133" s="5"/>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="Q133" s="5"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="5"/>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -5044,13 +5207,14 @@
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="10"/>
       <c r="P134" s="5"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="5"/>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="Q134" s="5"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="5"/>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -5064,13 +5228,14 @@
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
-      <c r="N135" s="10"/>
-      <c r="O135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="10"/>
       <c r="P135" s="5"/>
-      <c r="Q135" s="9"/>
-      <c r="R135" s="5"/>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="Q135" s="5"/>
+      <c r="R135" s="9"/>
+      <c r="S135" s="5"/>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5084,13 +5249,14 @@
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
-      <c r="N136" s="10"/>
-      <c r="O136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="10"/>
       <c r="P136" s="5"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="5"/>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="Q136" s="5"/>
+      <c r="R136" s="9"/>
+      <c r="S136" s="5"/>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -5104,13 +5270,14 @@
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
-      <c r="N137" s="10"/>
-      <c r="O137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="10"/>
       <c r="P137" s="5"/>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="5"/>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="Q137" s="5"/>
+      <c r="R137" s="9"/>
+      <c r="S137" s="5"/>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -5124,13 +5291,14 @@
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
-      <c r="N138" s="10"/>
-      <c r="O138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="10"/>
       <c r="P138" s="5"/>
-      <c r="Q138" s="9"/>
-      <c r="R138" s="5"/>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="Q138" s="5"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="5"/>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -5144,13 +5312,14 @@
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
-      <c r="N139" s="10"/>
-      <c r="O139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="10"/>
       <c r="P139" s="5"/>
-      <c r="Q139" s="9"/>
-      <c r="R139" s="5"/>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="Q139" s="5"/>
+      <c r="R139" s="9"/>
+      <c r="S139" s="5"/>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -5164,13 +5333,14 @@
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
-      <c r="N140" s="10"/>
-      <c r="O140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="10"/>
       <c r="P140" s="5"/>
-      <c r="Q140" s="9"/>
-      <c r="R140" s="5"/>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="Q140" s="5"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="5"/>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -5184,13 +5354,14 @@
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
-      <c r="N141" s="10"/>
-      <c r="O141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="10"/>
       <c r="P141" s="5"/>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="5"/>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="Q141" s="5"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="5"/>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5204,13 +5375,14 @@
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
-      <c r="N142" s="10"/>
-      <c r="O142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="10"/>
       <c r="P142" s="5"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="5"/>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="Q142" s="5"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="5"/>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5224,13 +5396,14 @@
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
-      <c r="N143" s="10"/>
-      <c r="O143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="10"/>
       <c r="P143" s="5"/>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="5"/>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="Q143" s="5"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="5"/>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -5244,13 +5417,14 @@
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
-      <c r="N144" s="10"/>
-      <c r="O144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="10"/>
       <c r="P144" s="5"/>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="5"/>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="Q144" s="5"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="5"/>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5264,13 +5438,14 @@
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
-      <c r="N145" s="10"/>
-      <c r="O145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="10"/>
       <c r="P145" s="5"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="5"/>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="Q145" s="5"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="5"/>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -5284,13 +5459,14 @@
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="10"/>
       <c r="P146" s="5"/>
-      <c r="Q146" s="9"/>
-      <c r="R146" s="5"/>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="Q146" s="5"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="5"/>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -5304,13 +5480,14 @@
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="10"/>
       <c r="P147" s="5"/>
-      <c r="Q147" s="9"/>
-      <c r="R147" s="5"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="Q147" s="5"/>
+      <c r="R147" s="9"/>
+      <c r="S147" s="5"/>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -5324,13 +5501,14 @@
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
-      <c r="N148" s="10"/>
-      <c r="O148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="10"/>
       <c r="P148" s="5"/>
-      <c r="Q148" s="9"/>
-      <c r="R148" s="5"/>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="Q148" s="5"/>
+      <c r="R148" s="9"/>
+      <c r="S148" s="5"/>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -5344,13 +5522,14 @@
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
-      <c r="N149" s="10"/>
-      <c r="O149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="10"/>
       <c r="P149" s="5"/>
-      <c r="Q149" s="9"/>
-      <c r="R149" s="5"/>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="Q149" s="5"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="5"/>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -5364,13 +5543,14 @@
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
-      <c r="N150" s="10"/>
-      <c r="O150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="10"/>
       <c r="P150" s="5"/>
-      <c r="Q150" s="9"/>
-      <c r="R150" s="5"/>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="Q150" s="5"/>
+      <c r="R150" s="9"/>
+      <c r="S150" s="5"/>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -5387,10 +5567,11 @@
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
-      <c r="Q151" s="9"/>
-      <c r="R151" s="5"/>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="Q151" s="5"/>
+      <c r="R151" s="9"/>
+      <c r="S151" s="5"/>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5407,10 +5588,11 @@
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
-      <c r="Q152" s="9"/>
-      <c r="R152" s="5"/>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="Q152" s="5"/>
+      <c r="R152" s="9"/>
+      <c r="S152" s="5"/>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -5427,10 +5609,11 @@
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
       <c r="P153" s="5"/>
-      <c r="Q153" s="9"/>
-      <c r="R153" s="5"/>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="Q153" s="5"/>
+      <c r="R153" s="9"/>
+      <c r="S153" s="5"/>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -5447,10 +5630,11 @@
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
       <c r="P154" s="5"/>
-      <c r="Q154" s="9"/>
-      <c r="R154" s="5"/>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="Q154" s="5"/>
+      <c r="R154" s="9"/>
+      <c r="S154" s="5"/>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -5467,10 +5651,11 @@
       <c r="N155" s="5"/>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
-      <c r="Q155" s="9"/>
-      <c r="R155" s="5"/>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="Q155" s="5"/>
+      <c r="R155" s="9"/>
+      <c r="S155" s="5"/>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -5487,10 +5672,11 @@
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
-      <c r="Q156" s="9"/>
-      <c r="R156" s="5"/>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="Q156" s="5"/>
+      <c r="R156" s="9"/>
+      <c r="S156" s="5"/>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -5507,10 +5693,11 @@
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
-      <c r="Q157" s="9"/>
-      <c r="R157" s="5"/>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="Q157" s="5"/>
+      <c r="R157" s="9"/>
+      <c r="S157" s="5"/>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -5527,10 +5714,11 @@
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
-      <c r="Q158" s="9"/>
-      <c r="R158" s="5"/>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="Q158" s="5"/>
+      <c r="R158" s="9"/>
+      <c r="S158" s="5"/>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -5547,10 +5735,11 @@
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
-      <c r="Q159" s="9"/>
-      <c r="R159" s="5"/>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="Q159" s="5"/>
+      <c r="R159" s="9"/>
+      <c r="S159" s="5"/>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -5567,10 +5756,11 @@
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
-      <c r="Q160" s="9"/>
-      <c r="R160" s="5"/>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="Q160" s="5"/>
+      <c r="R160" s="9"/>
+      <c r="S160" s="5"/>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5587,10 +5777,11 @@
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
-      <c r="Q161" s="9"/>
-      <c r="R161" s="5"/>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="Q161" s="5"/>
+      <c r="R161" s="9"/>
+      <c r="S161" s="5"/>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5607,10 +5798,11 @@
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
       <c r="P162" s="5"/>
-      <c r="Q162" s="9"/>
-      <c r="R162" s="5"/>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="Q162" s="5"/>
+      <c r="R162" s="9"/>
+      <c r="S162" s="5"/>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5627,10 +5819,11 @@
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="P163" s="5"/>
-      <c r="Q163" s="9"/>
-      <c r="R163" s="5"/>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="Q163" s="5"/>
+      <c r="R163" s="9"/>
+      <c r="S163" s="5"/>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5647,10 +5840,11 @@
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
-      <c r="Q164" s="9"/>
-      <c r="R164" s="5"/>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="Q164" s="5"/>
+      <c r="R164" s="9"/>
+      <c r="S164" s="5"/>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5667,10 +5861,11 @@
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
-      <c r="Q165" s="9"/>
-      <c r="R165" s="5"/>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="Q165" s="5"/>
+      <c r="R165" s="9"/>
+      <c r="S165" s="5"/>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5687,10 +5882,11 @@
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
-      <c r="Q166" s="9"/>
-      <c r="R166" s="5"/>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="Q166" s="5"/>
+      <c r="R166" s="9"/>
+      <c r="S166" s="5"/>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5707,10 +5903,11 @@
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
       <c r="P167" s="5"/>
-      <c r="Q167" s="9"/>
-      <c r="R167" s="5"/>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="Q167" s="5"/>
+      <c r="R167" s="9"/>
+      <c r="S167" s="5"/>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5727,10 +5924,11 @@
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
       <c r="P168" s="5"/>
-      <c r="Q168" s="9"/>
-      <c r="R168" s="5"/>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="Q168" s="5"/>
+      <c r="R168" s="9"/>
+      <c r="S168" s="5"/>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5747,10 +5945,11 @@
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
       <c r="P169" s="5"/>
-      <c r="Q169" s="9"/>
-      <c r="R169" s="5"/>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="Q169" s="5"/>
+      <c r="R169" s="9"/>
+      <c r="S169" s="5"/>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5767,10 +5966,11 @@
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
       <c r="P170" s="5"/>
-      <c r="Q170" s="9"/>
-      <c r="R170" s="5"/>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="Q170" s="5"/>
+      <c r="R170" s="9"/>
+      <c r="S170" s="5"/>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5787,10 +5987,11 @@
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
       <c r="P171" s="5"/>
-      <c r="Q171" s="9"/>
-      <c r="R171" s="5"/>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="Q171" s="5"/>
+      <c r="R171" s="9"/>
+      <c r="S171" s="5"/>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5807,10 +6008,11 @@
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
       <c r="P172" s="5"/>
-      <c r="Q172" s="9"/>
-      <c r="R172" s="5"/>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="Q172" s="5"/>
+      <c r="R172" s="9"/>
+      <c r="S172" s="5"/>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5827,10 +6029,11 @@
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
       <c r="P173" s="5"/>
-      <c r="Q173" s="9"/>
-      <c r="R173" s="5"/>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="Q173" s="5"/>
+      <c r="R173" s="9"/>
+      <c r="S173" s="5"/>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5847,10 +6050,11 @@
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
       <c r="P174" s="5"/>
-      <c r="Q174" s="9"/>
-      <c r="R174" s="5"/>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="Q174" s="5"/>
+      <c r="R174" s="9"/>
+      <c r="S174" s="5"/>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5867,10 +6071,11 @@
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
       <c r="P175" s="5"/>
-      <c r="Q175" s="9"/>
-      <c r="R175" s="5"/>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="Q175" s="5"/>
+      <c r="R175" s="9"/>
+      <c r="S175" s="5"/>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5887,10 +6092,11 @@
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
       <c r="P176" s="5"/>
-      <c r="Q176" s="9"/>
-      <c r="R176" s="5"/>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="Q176" s="5"/>
+      <c r="R176" s="9"/>
+      <c r="S176" s="5"/>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5907,10 +6113,11 @@
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
       <c r="P177" s="5"/>
-      <c r="Q177" s="9"/>
-      <c r="R177" s="5"/>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="Q177" s="5"/>
+      <c r="R177" s="9"/>
+      <c r="S177" s="5"/>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5927,10 +6134,11 @@
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
       <c r="P178" s="5"/>
-      <c r="Q178" s="9"/>
-      <c r="R178" s="5"/>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="Q178" s="5"/>
+      <c r="R178" s="9"/>
+      <c r="S178" s="5"/>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5947,10 +6155,11 @@
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
       <c r="P179" s="5"/>
-      <c r="Q179" s="9"/>
-      <c r="R179" s="5"/>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="Q179" s="5"/>
+      <c r="R179" s="9"/>
+      <c r="S179" s="5"/>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5967,10 +6176,11 @@
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
       <c r="P180" s="5"/>
-      <c r="Q180" s="9"/>
-      <c r="R180" s="5"/>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="Q180" s="5"/>
+      <c r="R180" s="9"/>
+      <c r="S180" s="5"/>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5987,10 +6197,11 @@
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
       <c r="P181" s="5"/>
-      <c r="Q181" s="9"/>
-      <c r="R181" s="5"/>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="Q181" s="5"/>
+      <c r="R181" s="9"/>
+      <c r="S181" s="5"/>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -6007,10 +6218,11 @@
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
-      <c r="Q182" s="9"/>
-      <c r="R182" s="5"/>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="Q182" s="5"/>
+      <c r="R182" s="9"/>
+      <c r="S182" s="5"/>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -6027,10 +6239,11 @@
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
       <c r="P183" s="5"/>
-      <c r="Q183" s="9"/>
-      <c r="R183" s="5"/>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="Q183" s="5"/>
+      <c r="R183" s="9"/>
+      <c r="S183" s="5"/>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -6047,10 +6260,11 @@
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
       <c r="P184" s="5"/>
-      <c r="Q184" s="9"/>
-      <c r="R184" s="5"/>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="Q184" s="5"/>
+      <c r="R184" s="9"/>
+      <c r="S184" s="5"/>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -6067,10 +6281,11 @@
       <c r="N185" s="5"/>
       <c r="O185" s="5"/>
       <c r="P185" s="5"/>
-      <c r="Q185" s="9"/>
-      <c r="R185" s="5"/>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="Q185" s="5"/>
+      <c r="R185" s="9"/>
+      <c r="S185" s="5"/>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -6087,10 +6302,11 @@
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
       <c r="P186" s="5"/>
-      <c r="Q186" s="9"/>
-      <c r="R186" s="5"/>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="Q186" s="5"/>
+      <c r="R186" s="9"/>
+      <c r="S186" s="5"/>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -6107,10 +6323,11 @@
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
       <c r="P187" s="5"/>
-      <c r="Q187" s="9"/>
-      <c r="R187" s="5"/>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="Q187" s="5"/>
+      <c r="R187" s="9"/>
+      <c r="S187" s="5"/>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -6127,10 +6344,11 @@
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
       <c r="P188" s="5"/>
-      <c r="Q188" s="9"/>
-      <c r="R188" s="5"/>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="Q188" s="5"/>
+      <c r="R188" s="9"/>
+      <c r="S188" s="5"/>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -6147,10 +6365,11 @@
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
       <c r="P189" s="5"/>
-      <c r="Q189" s="9"/>
-      <c r="R189" s="5"/>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="Q189" s="5"/>
+      <c r="R189" s="9"/>
+      <c r="S189" s="5"/>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -6167,10 +6386,11 @@
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
       <c r="P190" s="5"/>
-      <c r="Q190" s="9"/>
-      <c r="R190" s="5"/>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="Q190" s="5"/>
+      <c r="R190" s="9"/>
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -6187,10 +6407,11 @@
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
       <c r="P191" s="5"/>
-      <c r="Q191" s="9"/>
-      <c r="R191" s="5"/>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="Q191" s="5"/>
+      <c r="R191" s="9"/>
+      <c r="S191" s="5"/>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -6207,10 +6428,11 @@
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
       <c r="P192" s="5"/>
-      <c r="Q192" s="9"/>
-      <c r="R192" s="5"/>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="Q192" s="5"/>
+      <c r="R192" s="9"/>
+      <c r="S192" s="5"/>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -6227,10 +6449,11 @@
       <c r="N193" s="5"/>
       <c r="O193" s="5"/>
       <c r="P193" s="5"/>
-      <c r="Q193" s="9"/>
-      <c r="R193" s="5"/>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="Q193" s="5"/>
+      <c r="R193" s="9"/>
+      <c r="S193" s="5"/>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -6247,10 +6470,11 @@
       <c r="N194" s="5"/>
       <c r="O194" s="5"/>
       <c r="P194" s="5"/>
-      <c r="Q194" s="9"/>
-      <c r="R194" s="5"/>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="Q194" s="5"/>
+      <c r="R194" s="9"/>
+      <c r="S194" s="5"/>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -6267,10 +6491,11 @@
       <c r="N195" s="5"/>
       <c r="O195" s="5"/>
       <c r="P195" s="5"/>
-      <c r="Q195" s="9"/>
-      <c r="R195" s="5"/>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="Q195" s="5"/>
+      <c r="R195" s="9"/>
+      <c r="S195" s="5"/>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -6287,10 +6512,11 @@
       <c r="N196" s="5"/>
       <c r="O196" s="5"/>
       <c r="P196" s="5"/>
-      <c r="Q196" s="9"/>
-      <c r="R196" s="5"/>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="Q196" s="5"/>
+      <c r="R196" s="9"/>
+      <c r="S196" s="5"/>
+    </row>
+    <row r="197" spans="1:19">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -6307,10 +6533,11 @@
       <c r="N197" s="5"/>
       <c r="O197" s="5"/>
       <c r="P197" s="5"/>
-      <c r="Q197" s="9"/>
-      <c r="R197" s="5"/>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="Q197" s="5"/>
+      <c r="R197" s="9"/>
+      <c r="S197" s="5"/>
+    </row>
+    <row r="198" spans="1:19">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -6327,10 +6554,11 @@
       <c r="N198" s="5"/>
       <c r="O198" s="5"/>
       <c r="P198" s="5"/>
-      <c r="Q198" s="9"/>
-      <c r="R198" s="5"/>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="Q198" s="5"/>
+      <c r="R198" s="9"/>
+      <c r="S198" s="5"/>
+    </row>
+    <row r="199" spans="1:19">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -6347,10 +6575,11 @@
       <c r="N199" s="5"/>
       <c r="O199" s="5"/>
       <c r="P199" s="5"/>
-      <c r="Q199" s="9"/>
-      <c r="R199" s="5"/>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="Q199" s="5"/>
+      <c r="R199" s="9"/>
+      <c r="S199" s="5"/>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -6367,10 +6596,11 @@
       <c r="N200" s="5"/>
       <c r="O200" s="5"/>
       <c r="P200" s="5"/>
-      <c r="Q200" s="9"/>
-      <c r="R200" s="5"/>
-    </row>
-    <row r="201" spans="1:18">
+      <c r="Q200" s="5"/>
+      <c r="R200" s="9"/>
+      <c r="S200" s="5"/>
+    </row>
+    <row r="201" spans="1:19">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -6387,10 +6617,11 @@
       <c r="N201" s="5"/>
       <c r="O201" s="5"/>
       <c r="P201" s="5"/>
-      <c r="Q201" s="9"/>
-      <c r="R201" s="5"/>
-    </row>
-    <row r="202" spans="1:18">
+      <c r="Q201" s="5"/>
+      <c r="R201" s="9"/>
+      <c r="S201" s="5"/>
+    </row>
+    <row r="202" spans="1:19">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -6407,10 +6638,11 @@
       <c r="N202" s="5"/>
       <c r="O202" s="5"/>
       <c r="P202" s="5"/>
-      <c r="Q202" s="9"/>
-      <c r="R202" s="5"/>
-    </row>
-    <row r="203" spans="1:18">
+      <c r="Q202" s="5"/>
+      <c r="R202" s="9"/>
+      <c r="S202" s="5"/>
+    </row>
+    <row r="203" spans="1:19">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6427,10 +6659,11 @@
       <c r="N203" s="5"/>
       <c r="O203" s="5"/>
       <c r="P203" s="5"/>
-      <c r="Q203" s="9"/>
-      <c r="R203" s="5"/>
-    </row>
-    <row r="204" spans="1:18">
+      <c r="Q203" s="5"/>
+      <c r="R203" s="9"/>
+      <c r="S203" s="5"/>
+    </row>
+    <row r="204" spans="1:19">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -6447,10 +6680,11 @@
       <c r="N204" s="5"/>
       <c r="O204" s="5"/>
       <c r="P204" s="5"/>
-      <c r="Q204" s="9"/>
-      <c r="R204" s="5"/>
-    </row>
-    <row r="205" spans="1:18">
+      <c r="Q204" s="5"/>
+      <c r="R204" s="9"/>
+      <c r="S204" s="5"/>
+    </row>
+    <row r="205" spans="1:19">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -6467,10 +6701,11 @@
       <c r="N205" s="5"/>
       <c r="O205" s="5"/>
       <c r="P205" s="5"/>
-      <c r="Q205" s="9"/>
-      <c r="R205" s="5"/>
-    </row>
-    <row r="206" spans="1:18">
+      <c r="Q205" s="5"/>
+      <c r="R205" s="9"/>
+      <c r="S205" s="5"/>
+    </row>
+    <row r="206" spans="1:19">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -6487,10 +6722,11 @@
       <c r="N206" s="5"/>
       <c r="O206" s="5"/>
       <c r="P206" s="5"/>
-      <c r="Q206" s="9"/>
-      <c r="R206" s="5"/>
-    </row>
-    <row r="207" spans="1:18">
+      <c r="Q206" s="5"/>
+      <c r="R206" s="9"/>
+      <c r="S206" s="5"/>
+    </row>
+    <row r="207" spans="1:19">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -6507,10 +6743,11 @@
       <c r="N207" s="5"/>
       <c r="O207" s="5"/>
       <c r="P207" s="5"/>
-      <c r="Q207" s="9"/>
-      <c r="R207" s="5"/>
-    </row>
-    <row r="208" spans="1:18">
+      <c r="Q207" s="5"/>
+      <c r="R207" s="9"/>
+      <c r="S207" s="5"/>
+    </row>
+    <row r="208" spans="1:19">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -6527,10 +6764,11 @@
       <c r="N208" s="5"/>
       <c r="O208" s="5"/>
       <c r="P208" s="5"/>
-      <c r="Q208" s="9"/>
-      <c r="R208" s="5"/>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="Q208" s="5"/>
+      <c r="R208" s="9"/>
+      <c r="S208" s="5"/>
+    </row>
+    <row r="209" spans="1:19">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -6547,10 +6785,11 @@
       <c r="N209" s="5"/>
       <c r="O209" s="5"/>
       <c r="P209" s="5"/>
-      <c r="Q209" s="9"/>
-      <c r="R209" s="5"/>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="Q209" s="5"/>
+      <c r="R209" s="9"/>
+      <c r="S209" s="5"/>
+    </row>
+    <row r="210" spans="1:19">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -6567,10 +6806,11 @@
       <c r="N210" s="5"/>
       <c r="O210" s="5"/>
       <c r="P210" s="5"/>
-      <c r="Q210" s="9"/>
-      <c r="R210" s="5"/>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="Q210" s="5"/>
+      <c r="R210" s="9"/>
+      <c r="S210" s="5"/>
+    </row>
+    <row r="211" spans="1:19">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -6587,10 +6827,11 @@
       <c r="N211" s="5"/>
       <c r="O211" s="5"/>
       <c r="P211" s="5"/>
-      <c r="Q211" s="9"/>
-      <c r="R211" s="5"/>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="Q211" s="5"/>
+      <c r="R211" s="9"/>
+      <c r="S211" s="5"/>
+    </row>
+    <row r="212" spans="1:19">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -6607,10 +6848,11 @@
       <c r="N212" s="5"/>
       <c r="O212" s="5"/>
       <c r="P212" s="5"/>
-      <c r="Q212" s="9"/>
-      <c r="R212" s="5"/>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="Q212" s="5"/>
+      <c r="R212" s="9"/>
+      <c r="S212" s="5"/>
+    </row>
+    <row r="213" spans="1:19">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -6627,10 +6869,11 @@
       <c r="N213" s="5"/>
       <c r="O213" s="5"/>
       <c r="P213" s="5"/>
-      <c r="Q213" s="9"/>
-      <c r="R213" s="5"/>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="Q213" s="5"/>
+      <c r="R213" s="9"/>
+      <c r="S213" s="5"/>
+    </row>
+    <row r="214" spans="1:19">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -6647,10 +6890,11 @@
       <c r="N214" s="5"/>
       <c r="O214" s="5"/>
       <c r="P214" s="5"/>
-      <c r="Q214" s="9"/>
-      <c r="R214" s="5"/>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="Q214" s="5"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="5"/>
+    </row>
+    <row r="215" spans="1:19">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -6667,10 +6911,11 @@
       <c r="N215" s="5"/>
       <c r="O215" s="5"/>
       <c r="P215" s="5"/>
-      <c r="Q215" s="9"/>
-      <c r="R215" s="5"/>
-    </row>
-    <row r="216" spans="1:18">
+      <c r="Q215" s="5"/>
+      <c r="R215" s="9"/>
+      <c r="S215" s="5"/>
+    </row>
+    <row r="216" spans="1:19">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -6687,10 +6932,11 @@
       <c r="N216" s="5"/>
       <c r="O216" s="5"/>
       <c r="P216" s="5"/>
-      <c r="Q216" s="9"/>
-      <c r="R216" s="5"/>
-    </row>
-    <row r="217" spans="1:18">
+      <c r="Q216" s="5"/>
+      <c r="R216" s="9"/>
+      <c r="S216" s="5"/>
+    </row>
+    <row r="217" spans="1:19">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -6707,10 +6953,11 @@
       <c r="N217" s="5"/>
       <c r="O217" s="5"/>
       <c r="P217" s="5"/>
-      <c r="Q217" s="9"/>
-      <c r="R217" s="5"/>
-    </row>
-    <row r="218" spans="1:18">
+      <c r="Q217" s="5"/>
+      <c r="R217" s="9"/>
+      <c r="S217" s="5"/>
+    </row>
+    <row r="218" spans="1:19">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -6727,10 +6974,11 @@
       <c r="N218" s="5"/>
       <c r="O218" s="5"/>
       <c r="P218" s="5"/>
-      <c r="Q218" s="9"/>
-      <c r="R218" s="5"/>
-    </row>
-    <row r="219" spans="1:18">
+      <c r="Q218" s="5"/>
+      <c r="R218" s="9"/>
+      <c r="S218" s="5"/>
+    </row>
+    <row r="219" spans="1:19">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -6747,10 +6995,11 @@
       <c r="N219" s="5"/>
       <c r="O219" s="5"/>
       <c r="P219" s="5"/>
-      <c r="Q219" s="9"/>
-      <c r="R219" s="5"/>
-    </row>
-    <row r="220" spans="1:18">
+      <c r="Q219" s="5"/>
+      <c r="R219" s="9"/>
+      <c r="S219" s="5"/>
+    </row>
+    <row r="220" spans="1:19">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -6767,10 +7016,11 @@
       <c r="N220" s="5"/>
       <c r="O220" s="5"/>
       <c r="P220" s="5"/>
-      <c r="Q220" s="9"/>
-      <c r="R220" s="5"/>
-    </row>
-    <row r="221" spans="1:18">
+      <c r="Q220" s="5"/>
+      <c r="R220" s="9"/>
+      <c r="S220" s="5"/>
+    </row>
+    <row r="221" spans="1:19">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -6787,10 +7037,11 @@
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
       <c r="P221" s="5"/>
-      <c r="Q221" s="9"/>
-      <c r="R221" s="5"/>
-    </row>
-    <row r="222" spans="1:18">
+      <c r="Q221" s="5"/>
+      <c r="R221" s="9"/>
+      <c r="S221" s="5"/>
+    </row>
+    <row r="222" spans="1:19">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -6807,10 +7058,11 @@
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
       <c r="P222" s="5"/>
-      <c r="Q222" s="9"/>
-      <c r="R222" s="5"/>
-    </row>
-    <row r="223" spans="1:18">
+      <c r="Q222" s="5"/>
+      <c r="R222" s="9"/>
+      <c r="S222" s="5"/>
+    </row>
+    <row r="223" spans="1:19">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -6827,10 +7079,11 @@
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
       <c r="P223" s="5"/>
-      <c r="Q223" s="9"/>
-      <c r="R223" s="5"/>
-    </row>
-    <row r="224" spans="1:18">
+      <c r="Q223" s="5"/>
+      <c r="R223" s="9"/>
+      <c r="S223" s="5"/>
+    </row>
+    <row r="224" spans="1:19">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -6847,10 +7100,11 @@
       <c r="N224" s="5"/>
       <c r="O224" s="5"/>
       <c r="P224" s="5"/>
-      <c r="Q224" s="9"/>
-      <c r="R224" s="5"/>
-    </row>
-    <row r="225" spans="1:18">
+      <c r="Q224" s="5"/>
+      <c r="R224" s="9"/>
+      <c r="S224" s="5"/>
+    </row>
+    <row r="225" spans="1:19">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -6867,10 +7121,11 @@
       <c r="N225" s="5"/>
       <c r="O225" s="5"/>
       <c r="P225" s="5"/>
-      <c r="Q225" s="9"/>
-      <c r="R225" s="5"/>
-    </row>
-    <row r="226" spans="1:18">
+      <c r="Q225" s="5"/>
+      <c r="R225" s="9"/>
+      <c r="S225" s="5"/>
+    </row>
+    <row r="226" spans="1:19">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -6887,10 +7142,11 @@
       <c r="N226" s="5"/>
       <c r="O226" s="5"/>
       <c r="P226" s="5"/>
-      <c r="Q226" s="9"/>
-      <c r="R226" s="5"/>
-    </row>
-    <row r="227" spans="1:18">
+      <c r="Q226" s="5"/>
+      <c r="R226" s="9"/>
+      <c r="S226" s="5"/>
+    </row>
+    <row r="227" spans="1:19">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -6907,10 +7163,11 @@
       <c r="N227" s="5"/>
       <c r="O227" s="5"/>
       <c r="P227" s="5"/>
-      <c r="Q227" s="9"/>
-      <c r="R227" s="5"/>
-    </row>
-    <row r="228" spans="1:18">
+      <c r="Q227" s="5"/>
+      <c r="R227" s="9"/>
+      <c r="S227" s="5"/>
+    </row>
+    <row r="228" spans="1:19">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -6927,10 +7184,11 @@
       <c r="N228" s="5"/>
       <c r="O228" s="5"/>
       <c r="P228" s="5"/>
-      <c r="Q228" s="9"/>
-      <c r="R228" s="5"/>
-    </row>
-    <row r="229" spans="1:18">
+      <c r="Q228" s="5"/>
+      <c r="R228" s="9"/>
+      <c r="S228" s="5"/>
+    </row>
+    <row r="229" spans="1:19">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -6947,10 +7205,11 @@
       <c r="N229" s="5"/>
       <c r="O229" s="5"/>
       <c r="P229" s="5"/>
-      <c r="Q229" s="9"/>
-      <c r="R229" s="5"/>
-    </row>
-    <row r="230" spans="1:18">
+      <c r="Q229" s="5"/>
+      <c r="R229" s="9"/>
+      <c r="S229" s="5"/>
+    </row>
+    <row r="230" spans="1:19">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6967,10 +7226,11 @@
       <c r="N230" s="5"/>
       <c r="O230" s="5"/>
       <c r="P230" s="5"/>
-      <c r="Q230" s="9"/>
-      <c r="R230" s="5"/>
-    </row>
-    <row r="231" spans="1:18">
+      <c r="Q230" s="5"/>
+      <c r="R230" s="9"/>
+      <c r="S230" s="5"/>
+    </row>
+    <row r="231" spans="1:19">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6987,10 +7247,11 @@
       <c r="N231" s="5"/>
       <c r="O231" s="5"/>
       <c r="P231" s="5"/>
-      <c r="Q231" s="9"/>
-      <c r="R231" s="5"/>
-    </row>
-    <row r="232" spans="1:18">
+      <c r="Q231" s="5"/>
+      <c r="R231" s="9"/>
+      <c r="S231" s="5"/>
+    </row>
+    <row r="232" spans="1:19">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7007,10 +7268,11 @@
       <c r="N232" s="5"/>
       <c r="O232" s="5"/>
       <c r="P232" s="5"/>
-      <c r="Q232" s="9"/>
-      <c r="R232" s="5"/>
-    </row>
-    <row r="233" spans="1:18">
+      <c r="Q232" s="5"/>
+      <c r="R232" s="9"/>
+      <c r="S232" s="5"/>
+    </row>
+    <row r="233" spans="1:19">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -7027,10 +7289,11 @@
       <c r="N233" s="5"/>
       <c r="O233" s="5"/>
       <c r="P233" s="5"/>
-      <c r="Q233" s="9"/>
-      <c r="R233" s="5"/>
-    </row>
-    <row r="234" spans="1:18">
+      <c r="Q233" s="5"/>
+      <c r="R233" s="9"/>
+      <c r="S233" s="5"/>
+    </row>
+    <row r="234" spans="1:19">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -7047,10 +7310,11 @@
       <c r="N234" s="5"/>
       <c r="O234" s="5"/>
       <c r="P234" s="5"/>
-      <c r="Q234" s="9"/>
-      <c r="R234" s="5"/>
-    </row>
-    <row r="235" spans="1:18">
+      <c r="Q234" s="5"/>
+      <c r="R234" s="9"/>
+      <c r="S234" s="5"/>
+    </row>
+    <row r="235" spans="1:19">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -7067,10 +7331,11 @@
       <c r="N235" s="5"/>
       <c r="O235" s="5"/>
       <c r="P235" s="5"/>
-      <c r="Q235" s="9"/>
-      <c r="R235" s="5"/>
-    </row>
-    <row r="236" spans="1:18">
+      <c r="Q235" s="5"/>
+      <c r="R235" s="9"/>
+      <c r="S235" s="5"/>
+    </row>
+    <row r="236" spans="1:19">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -7087,10 +7352,11 @@
       <c r="N236" s="5"/>
       <c r="O236" s="5"/>
       <c r="P236" s="5"/>
-      <c r="Q236" s="9"/>
-      <c r="R236" s="5"/>
-    </row>
-    <row r="237" spans="1:17">
+      <c r="Q236" s="5"/>
+      <c r="R236" s="9"/>
+      <c r="S236" s="5"/>
+    </row>
+    <row r="237" spans="1:18">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -7104,12 +7370,13 @@
       <c r="K237" s="5"/>
       <c r="L237" s="5"/>
       <c r="M237" s="5"/>
-      <c r="N237" s="10"/>
-      <c r="O237" s="5"/>
+      <c r="N237" s="5"/>
+      <c r="O237" s="10"/>
       <c r="P237" s="5"/>
-      <c r="Q237" s="9"/>
-    </row>
-    <row r="238" spans="1:17">
+      <c r="Q237" s="5"/>
+      <c r="R237" s="9"/>
+    </row>
+    <row r="238" spans="1:18">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -7123,12 +7390,13 @@
       <c r="K238" s="5"/>
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
-      <c r="N238" s="10"/>
-      <c r="O238" s="5"/>
+      <c r="N238" s="5"/>
+      <c r="O238" s="10"/>
       <c r="P238" s="5"/>
-      <c r="Q238" s="9"/>
-    </row>
-    <row r="239" spans="1:17">
+      <c r="Q238" s="5"/>
+      <c r="R238" s="9"/>
+    </row>
+    <row r="239" spans="1:18">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -7142,12 +7410,13 @@
       <c r="K239" s="5"/>
       <c r="L239" s="5"/>
       <c r="M239" s="5"/>
-      <c r="N239" s="10"/>
-      <c r="O239" s="5"/>
+      <c r="N239" s="5"/>
+      <c r="O239" s="10"/>
       <c r="P239" s="5"/>
-      <c r="Q239" s="9"/>
-    </row>
-    <row r="240" spans="1:17">
+      <c r="Q239" s="5"/>
+      <c r="R239" s="9"/>
+    </row>
+    <row r="240" spans="1:18">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -7161,12 +7430,13 @@
       <c r="K240" s="5"/>
       <c r="L240" s="5"/>
       <c r="M240" s="5"/>
-      <c r="N240" s="10"/>
-      <c r="O240" s="5"/>
+      <c r="N240" s="5"/>
+      <c r="O240" s="10"/>
       <c r="P240" s="5"/>
-      <c r="Q240" s="9"/>
-    </row>
-    <row r="241" spans="1:17">
+      <c r="Q240" s="5"/>
+      <c r="R240" s="9"/>
+    </row>
+    <row r="241" spans="1:18">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -7180,12 +7450,13 @@
       <c r="K241" s="5"/>
       <c r="L241" s="5"/>
       <c r="M241" s="5"/>
-      <c r="N241" s="10"/>
-      <c r="O241" s="5"/>
+      <c r="N241" s="5"/>
+      <c r="O241" s="10"/>
       <c r="P241" s="5"/>
-      <c r="Q241" s="9"/>
-    </row>
-    <row r="242" spans="1:17">
+      <c r="Q241" s="5"/>
+      <c r="R241" s="9"/>
+    </row>
+    <row r="242" spans="1:18">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -7199,12 +7470,13 @@
       <c r="K242" s="5"/>
       <c r="L242" s="5"/>
       <c r="M242" s="5"/>
-      <c r="N242" s="10"/>
-      <c r="O242" s="5"/>
+      <c r="N242" s="5"/>
+      <c r="O242" s="10"/>
       <c r="P242" s="5"/>
-      <c r="Q242" s="9"/>
-    </row>
-    <row r="243" spans="1:17">
+      <c r="Q242" s="5"/>
+      <c r="R242" s="9"/>
+    </row>
+    <row r="243" spans="1:18">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -7218,12 +7490,13 @@
       <c r="K243" s="5"/>
       <c r="L243" s="5"/>
       <c r="M243" s="5"/>
-      <c r="N243" s="10"/>
-      <c r="O243" s="5"/>
+      <c r="N243" s="5"/>
+      <c r="O243" s="10"/>
       <c r="P243" s="5"/>
-      <c r="Q243" s="9"/>
-    </row>
-    <row r="244" spans="1:17">
+      <c r="Q243" s="5"/>
+      <c r="R243" s="9"/>
+    </row>
+    <row r="244" spans="1:18">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -7237,12 +7510,13 @@
       <c r="K244" s="5"/>
       <c r="L244" s="5"/>
       <c r="M244" s="5"/>
-      <c r="N244" s="10"/>
-      <c r="O244" s="5"/>
+      <c r="N244" s="5"/>
+      <c r="O244" s="10"/>
       <c r="P244" s="5"/>
-      <c r="Q244" s="9"/>
-    </row>
-    <row r="245" spans="1:17">
+      <c r="Q244" s="5"/>
+      <c r="R244" s="9"/>
+    </row>
+    <row r="245" spans="1:18">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -7256,12 +7530,13 @@
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
       <c r="M245" s="5"/>
-      <c r="N245" s="10"/>
-      <c r="O245" s="5"/>
+      <c r="N245" s="5"/>
+      <c r="O245" s="10"/>
       <c r="P245" s="5"/>
-      <c r="Q245" s="9"/>
-    </row>
-    <row r="246" spans="1:17">
+      <c r="Q245" s="5"/>
+      <c r="R245" s="9"/>
+    </row>
+    <row r="246" spans="1:18">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -7275,12 +7550,13 @@
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
       <c r="M246" s="5"/>
-      <c r="N246" s="10"/>
-      <c r="O246" s="5"/>
+      <c r="N246" s="5"/>
+      <c r="O246" s="10"/>
       <c r="P246" s="5"/>
-      <c r="Q246" s="9"/>
-    </row>
-    <row r="247" spans="1:17">
+      <c r="Q246" s="5"/>
+      <c r="R246" s="9"/>
+    </row>
+    <row r="247" spans="1:18">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -7294,12 +7570,13 @@
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
       <c r="M247" s="5"/>
-      <c r="N247" s="10"/>
-      <c r="O247" s="5"/>
+      <c r="N247" s="5"/>
+      <c r="O247" s="10"/>
       <c r="P247" s="5"/>
-      <c r="Q247" s="9"/>
-    </row>
-    <row r="248" spans="1:17">
+      <c r="Q247" s="5"/>
+      <c r="R247" s="9"/>
+    </row>
+    <row r="248" spans="1:18">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -7313,12 +7590,13 @@
       <c r="K248" s="5"/>
       <c r="L248" s="5"/>
       <c r="M248" s="5"/>
-      <c r="N248" s="10"/>
-      <c r="O248" s="5"/>
+      <c r="N248" s="5"/>
+      <c r="O248" s="10"/>
       <c r="P248" s="5"/>
-      <c r="Q248" s="9"/>
-    </row>
-    <row r="249" spans="1:17">
+      <c r="Q248" s="5"/>
+      <c r="R248" s="9"/>
+    </row>
+    <row r="249" spans="1:18">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -7332,12 +7610,13 @@
       <c r="K249" s="5"/>
       <c r="L249" s="5"/>
       <c r="M249" s="5"/>
-      <c r="N249" s="10"/>
-      <c r="O249" s="5"/>
+      <c r="N249" s="5"/>
+      <c r="O249" s="10"/>
       <c r="P249" s="5"/>
-      <c r="Q249" s="9"/>
-    </row>
-    <row r="250" spans="1:17">
+      <c r="Q249" s="5"/>
+      <c r="R249" s="9"/>
+    </row>
+    <row r="250" spans="1:18">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -7351,12 +7630,13 @@
       <c r="K250" s="5"/>
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
-      <c r="N250" s="10"/>
-      <c r="O250" s="5"/>
+      <c r="N250" s="5"/>
+      <c r="O250" s="10"/>
       <c r="P250" s="5"/>
-      <c r="Q250" s="9"/>
-    </row>
-    <row r="251" spans="1:17">
+      <c r="Q250" s="5"/>
+      <c r="R250" s="9"/>
+    </row>
+    <row r="251" spans="1:18">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -7370,12 +7650,13 @@
       <c r="K251" s="5"/>
       <c r="L251" s="5"/>
       <c r="M251" s="5"/>
-      <c r="N251" s="10"/>
-      <c r="O251" s="5"/>
+      <c r="N251" s="5"/>
+      <c r="O251" s="10"/>
       <c r="P251" s="5"/>
-      <c r="Q251" s="9"/>
-    </row>
-    <row r="252" spans="1:17">
+      <c r="Q251" s="5"/>
+      <c r="R251" s="9"/>
+    </row>
+    <row r="252" spans="1:18">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -7389,12 +7670,13 @@
       <c r="K252" s="5"/>
       <c r="L252" s="5"/>
       <c r="M252" s="5"/>
-      <c r="N252" s="10"/>
-      <c r="O252" s="5"/>
+      <c r="N252" s="5"/>
+      <c r="O252" s="10"/>
       <c r="P252" s="5"/>
-      <c r="Q252" s="9"/>
-    </row>
-    <row r="253" spans="1:17">
+      <c r="Q252" s="5"/>
+      <c r="R252" s="9"/>
+    </row>
+    <row r="253" spans="1:18">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -7408,12 +7690,13 @@
       <c r="K253" s="5"/>
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
-      <c r="N253" s="10"/>
-      <c r="O253" s="5"/>
+      <c r="N253" s="5"/>
+      <c r="O253" s="10"/>
       <c r="P253" s="5"/>
-      <c r="Q253" s="9"/>
-    </row>
-    <row r="254" spans="1:17">
+      <c r="Q253" s="5"/>
+      <c r="R253" s="9"/>
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -7427,12 +7710,13 @@
       <c r="K254" s="5"/>
       <c r="L254" s="5"/>
       <c r="M254" s="5"/>
-      <c r="N254" s="10"/>
-      <c r="O254" s="5"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="10"/>
       <c r="P254" s="5"/>
-      <c r="Q254" s="9"/>
-    </row>
-    <row r="255" spans="1:17">
+      <c r="Q254" s="5"/>
+      <c r="R254" s="9"/>
+    </row>
+    <row r="255" spans="1:18">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -7446,12 +7730,13 @@
       <c r="K255" s="5"/>
       <c r="L255" s="5"/>
       <c r="M255" s="5"/>
-      <c r="N255" s="10"/>
-      <c r="O255" s="5"/>
+      <c r="N255" s="5"/>
+      <c r="O255" s="10"/>
       <c r="P255" s="5"/>
-      <c r="Q255" s="9"/>
-    </row>
-    <row r="256" spans="1:17">
+      <c r="Q255" s="5"/>
+      <c r="R255" s="9"/>
+    </row>
+    <row r="256" spans="1:18">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -7465,12 +7750,13 @@
       <c r="K256" s="5"/>
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
-      <c r="N256" s="10"/>
-      <c r="O256" s="5"/>
+      <c r="N256" s="5"/>
+      <c r="O256" s="10"/>
       <c r="P256" s="5"/>
-      <c r="Q256" s="9"/>
-    </row>
-    <row r="257" spans="1:17">
+      <c r="Q256" s="5"/>
+      <c r="R256" s="9"/>
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -7484,12 +7770,13 @@
       <c r="K257" s="5"/>
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
-      <c r="N257" s="10"/>
-      <c r="O257" s="5"/>
+      <c r="N257" s="5"/>
+      <c r="O257" s="10"/>
       <c r="P257" s="5"/>
-      <c r="Q257" s="9"/>
-    </row>
-    <row r="258" spans="1:17">
+      <c r="Q257" s="5"/>
+      <c r="R257" s="9"/>
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -7503,12 +7790,13 @@
       <c r="K258" s="5"/>
       <c r="L258" s="5"/>
       <c r="M258" s="5"/>
-      <c r="N258" s="10"/>
-      <c r="O258" s="5"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="10"/>
       <c r="P258" s="5"/>
-      <c r="Q258" s="9"/>
-    </row>
-    <row r="259" spans="1:17">
+      <c r="Q258" s="5"/>
+      <c r="R258" s="9"/>
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -7522,12 +7810,13 @@
       <c r="K259" s="5"/>
       <c r="L259" s="5"/>
       <c r="M259" s="5"/>
-      <c r="N259" s="10"/>
-      <c r="O259" s="5"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="10"/>
       <c r="P259" s="5"/>
-      <c r="Q259" s="9"/>
-    </row>
-    <row r="260" spans="1:17">
+      <c r="Q259" s="5"/>
+      <c r="R259" s="9"/>
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -7541,12 +7830,13 @@
       <c r="K260" s="5"/>
       <c r="L260" s="5"/>
       <c r="M260" s="5"/>
-      <c r="N260" s="10"/>
-      <c r="O260" s="5"/>
+      <c r="N260" s="5"/>
+      <c r="O260" s="10"/>
       <c r="P260" s="5"/>
-      <c r="Q260" s="9"/>
-    </row>
-    <row r="261" spans="1:17">
+      <c r="Q260" s="5"/>
+      <c r="R260" s="9"/>
+    </row>
+    <row r="261" spans="1:18">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7560,12 +7850,13 @@
       <c r="K261" s="5"/>
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
-      <c r="N261" s="10"/>
-      <c r="O261" s="5"/>
+      <c r="N261" s="5"/>
+      <c r="O261" s="10"/>
       <c r="P261" s="5"/>
-      <c r="Q261" s="9"/>
-    </row>
-    <row r="262" spans="1:17">
+      <c r="Q261" s="5"/>
+      <c r="R261" s="9"/>
+    </row>
+    <row r="262" spans="1:18">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -7579,12 +7870,13 @@
       <c r="K262" s="5"/>
       <c r="L262" s="5"/>
       <c r="M262" s="5"/>
-      <c r="N262" s="10"/>
-      <c r="O262" s="5"/>
+      <c r="N262" s="5"/>
+      <c r="O262" s="10"/>
       <c r="P262" s="5"/>
-      <c r="Q262" s="9"/>
-    </row>
-    <row r="263" spans="1:17">
+      <c r="Q262" s="5"/>
+      <c r="R262" s="9"/>
+    </row>
+    <row r="263" spans="1:18">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -7598,12 +7890,13 @@
       <c r="K263" s="5"/>
       <c r="L263" s="5"/>
       <c r="M263" s="5"/>
-      <c r="N263" s="10"/>
-      <c r="O263" s="5"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="10"/>
       <c r="P263" s="5"/>
-      <c r="Q263" s="9"/>
-    </row>
-    <row r="264" spans="1:17">
+      <c r="Q263" s="5"/>
+      <c r="R263" s="9"/>
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -7617,12 +7910,13 @@
       <c r="K264" s="5"/>
       <c r="L264" s="5"/>
       <c r="M264" s="5"/>
-      <c r="N264" s="10"/>
-      <c r="O264" s="5"/>
+      <c r="N264" s="5"/>
+      <c r="O264" s="10"/>
       <c r="P264" s="5"/>
-      <c r="Q264" s="9"/>
-    </row>
-    <row r="265" spans="1:17">
+      <c r="Q264" s="5"/>
+      <c r="R264" s="9"/>
+    </row>
+    <row r="265" spans="1:18">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -7636,12 +7930,13 @@
       <c r="K265" s="5"/>
       <c r="L265" s="5"/>
       <c r="M265" s="5"/>
-      <c r="N265" s="10"/>
-      <c r="O265" s="5"/>
+      <c r="N265" s="5"/>
+      <c r="O265" s="10"/>
       <c r="P265" s="5"/>
-      <c r="Q265" s="9"/>
-    </row>
-    <row r="266" spans="1:17">
+      <c r="Q265" s="5"/>
+      <c r="R265" s="9"/>
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -7655,12 +7950,13 @@
       <c r="K266" s="5"/>
       <c r="L266" s="5"/>
       <c r="M266" s="5"/>
-      <c r="N266" s="10"/>
-      <c r="O266" s="5"/>
+      <c r="N266" s="5"/>
+      <c r="O266" s="10"/>
       <c r="P266" s="5"/>
-      <c r="Q266" s="9"/>
-    </row>
-    <row r="267" spans="1:17">
+      <c r="Q266" s="5"/>
+      <c r="R266" s="9"/>
+    </row>
+    <row r="267" spans="1:18">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -7674,12 +7970,13 @@
       <c r="K267" s="5"/>
       <c r="L267" s="5"/>
       <c r="M267" s="5"/>
-      <c r="N267" s="10"/>
-      <c r="O267" s="5"/>
+      <c r="N267" s="5"/>
+      <c r="O267" s="10"/>
       <c r="P267" s="5"/>
-      <c r="Q267" s="9"/>
-    </row>
-    <row r="268" spans="1:17">
+      <c r="Q267" s="5"/>
+      <c r="R267" s="9"/>
+    </row>
+    <row r="268" spans="1:18">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -7693,12 +7990,13 @@
       <c r="K268" s="5"/>
       <c r="L268" s="5"/>
       <c r="M268" s="5"/>
-      <c r="N268" s="10"/>
-      <c r="O268" s="5"/>
+      <c r="N268" s="5"/>
+      <c r="O268" s="10"/>
       <c r="P268" s="5"/>
-      <c r="Q268" s="9"/>
-    </row>
-    <row r="269" spans="1:17">
+      <c r="Q268" s="5"/>
+      <c r="R268" s="9"/>
+    </row>
+    <row r="269" spans="1:18">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -7712,12 +8010,13 @@
       <c r="K269" s="5"/>
       <c r="L269" s="5"/>
       <c r="M269" s="5"/>
-      <c r="N269" s="10"/>
-      <c r="O269" s="5"/>
+      <c r="N269" s="5"/>
+      <c r="O269" s="10"/>
       <c r="P269" s="5"/>
-      <c r="Q269" s="9"/>
-    </row>
-    <row r="270" spans="1:17">
+      <c r="Q269" s="5"/>
+      <c r="R269" s="9"/>
+    </row>
+    <row r="270" spans="1:18">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -7731,12 +8030,13 @@
       <c r="K270" s="5"/>
       <c r="L270" s="5"/>
       <c r="M270" s="5"/>
-      <c r="N270" s="10"/>
-      <c r="O270" s="5"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="10"/>
       <c r="P270" s="5"/>
-      <c r="Q270" s="9"/>
-    </row>
-    <row r="271" spans="1:17">
+      <c r="Q270" s="5"/>
+      <c r="R270" s="9"/>
+    </row>
+    <row r="271" spans="1:18">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -7750,12 +8050,13 @@
       <c r="K271" s="5"/>
       <c r="L271" s="5"/>
       <c r="M271" s="5"/>
-      <c r="N271" s="10"/>
-      <c r="O271" s="5"/>
+      <c r="N271" s="5"/>
+      <c r="O271" s="10"/>
       <c r="P271" s="5"/>
-      <c r="Q271" s="9"/>
-    </row>
-    <row r="272" spans="1:17">
+      <c r="Q271" s="5"/>
+      <c r="R271" s="9"/>
+    </row>
+    <row r="272" spans="1:18">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -7769,12 +8070,13 @@
       <c r="K272" s="5"/>
       <c r="L272" s="5"/>
       <c r="M272" s="5"/>
-      <c r="N272" s="10"/>
-      <c r="O272" s="5"/>
+      <c r="N272" s="5"/>
+      <c r="O272" s="10"/>
       <c r="P272" s="5"/>
-      <c r="Q272" s="9"/>
-    </row>
-    <row r="273" spans="1:17">
+      <c r="Q272" s="5"/>
+      <c r="R272" s="9"/>
+    </row>
+    <row r="273" spans="1:18">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -7788,12 +8090,13 @@
       <c r="K273" s="5"/>
       <c r="L273" s="5"/>
       <c r="M273" s="5"/>
-      <c r="N273" s="10"/>
-      <c r="O273" s="5"/>
+      <c r="N273" s="5"/>
+      <c r="O273" s="10"/>
       <c r="P273" s="5"/>
-      <c r="Q273" s="9"/>
-    </row>
-    <row r="274" spans="1:17">
+      <c r="Q273" s="5"/>
+      <c r="R273" s="9"/>
+    </row>
+    <row r="274" spans="1:18">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -7807,12 +8110,13 @@
       <c r="K274" s="5"/>
       <c r="L274" s="5"/>
       <c r="M274" s="5"/>
-      <c r="N274" s="10"/>
-      <c r="O274" s="5"/>
+      <c r="N274" s="5"/>
+      <c r="O274" s="10"/>
       <c r="P274" s="5"/>
-      <c r="Q274" s="9"/>
-    </row>
-    <row r="275" spans="1:17">
+      <c r="Q274" s="5"/>
+      <c r="R274" s="9"/>
+    </row>
+    <row r="275" spans="1:18">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -7826,12 +8130,13 @@
       <c r="K275" s="5"/>
       <c r="L275" s="5"/>
       <c r="M275" s="5"/>
-      <c r="N275" s="10"/>
-      <c r="O275" s="5"/>
+      <c r="N275" s="5"/>
+      <c r="O275" s="10"/>
       <c r="P275" s="5"/>
-      <c r="Q275" s="9"/>
-    </row>
-    <row r="276" spans="1:17">
+      <c r="Q275" s="5"/>
+      <c r="R275" s="9"/>
+    </row>
+    <row r="276" spans="1:18">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -7845,12 +8150,13 @@
       <c r="K276" s="5"/>
       <c r="L276" s="5"/>
       <c r="M276" s="5"/>
-      <c r="N276" s="10"/>
-      <c r="O276" s="5"/>
+      <c r="N276" s="5"/>
+      <c r="O276" s="10"/>
       <c r="P276" s="5"/>
-      <c r="Q276" s="9"/>
-    </row>
-    <row r="277" spans="1:17">
+      <c r="Q276" s="5"/>
+      <c r="R276" s="9"/>
+    </row>
+    <row r="277" spans="1:18">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -7864,12 +8170,13 @@
       <c r="K277" s="5"/>
       <c r="L277" s="5"/>
       <c r="M277" s="5"/>
-      <c r="N277" s="10"/>
-      <c r="O277" s="5"/>
+      <c r="N277" s="5"/>
+      <c r="O277" s="10"/>
       <c r="P277" s="5"/>
-      <c r="Q277" s="9"/>
-    </row>
-    <row r="278" spans="1:17">
+      <c r="Q277" s="5"/>
+      <c r="R277" s="9"/>
+    </row>
+    <row r="278" spans="1:18">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -7883,12 +8190,13 @@
       <c r="K278" s="5"/>
       <c r="L278" s="5"/>
       <c r="M278" s="5"/>
-      <c r="N278" s="10"/>
-      <c r="O278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="10"/>
       <c r="P278" s="5"/>
-      <c r="Q278" s="9"/>
-    </row>
-    <row r="279" spans="1:17">
+      <c r="Q278" s="5"/>
+      <c r="R278" s="9"/>
+    </row>
+    <row r="279" spans="1:18">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -7902,12 +8210,13 @@
       <c r="K279" s="5"/>
       <c r="L279" s="5"/>
       <c r="M279" s="5"/>
-      <c r="N279" s="10"/>
-      <c r="O279" s="5"/>
+      <c r="N279" s="5"/>
+      <c r="O279" s="10"/>
       <c r="P279" s="5"/>
-      <c r="Q279" s="9"/>
-    </row>
-    <row r="280" spans="1:17">
+      <c r="Q279" s="5"/>
+      <c r="R279" s="9"/>
+    </row>
+    <row r="280" spans="1:18">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -7921,12 +8230,13 @@
       <c r="K280" s="5"/>
       <c r="L280" s="5"/>
       <c r="M280" s="5"/>
-      <c r="N280" s="10"/>
-      <c r="O280" s="5"/>
+      <c r="N280" s="5"/>
+      <c r="O280" s="10"/>
       <c r="P280" s="5"/>
-      <c r="Q280" s="9"/>
-    </row>
-    <row r="281" spans="1:17">
+      <c r="Q280" s="5"/>
+      <c r="R280" s="9"/>
+    </row>
+    <row r="281" spans="1:18">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -7940,12 +8250,13 @@
       <c r="K281" s="5"/>
       <c r="L281" s="5"/>
       <c r="M281" s="5"/>
-      <c r="N281" s="10"/>
-      <c r="O281" s="5"/>
+      <c r="N281" s="5"/>
+      <c r="O281" s="10"/>
       <c r="P281" s="5"/>
-      <c r="Q281" s="9"/>
-    </row>
-    <row r="282" spans="1:17">
+      <c r="Q281" s="5"/>
+      <c r="R281" s="9"/>
+    </row>
+    <row r="282" spans="1:18">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -7959,12 +8270,13 @@
       <c r="K282" s="5"/>
       <c r="L282" s="5"/>
       <c r="M282" s="5"/>
-      <c r="N282" s="10"/>
-      <c r="O282" s="5"/>
+      <c r="N282" s="5"/>
+      <c r="O282" s="10"/>
       <c r="P282" s="5"/>
-      <c r="Q282" s="9"/>
-    </row>
-    <row r="283" spans="1:17">
+      <c r="Q282" s="5"/>
+      <c r="R282" s="9"/>
+    </row>
+    <row r="283" spans="1:18">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -7978,12 +8290,13 @@
       <c r="K283" s="5"/>
       <c r="L283" s="5"/>
       <c r="M283" s="5"/>
-      <c r="N283" s="10"/>
-      <c r="O283" s="5"/>
+      <c r="N283" s="5"/>
+      <c r="O283" s="10"/>
       <c r="P283" s="5"/>
-      <c r="Q283" s="9"/>
-    </row>
-    <row r="284" spans="1:17">
+      <c r="Q283" s="5"/>
+      <c r="R283" s="9"/>
+    </row>
+    <row r="284" spans="1:18">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -7997,12 +8310,13 @@
       <c r="K284" s="5"/>
       <c r="L284" s="5"/>
       <c r="M284" s="5"/>
-      <c r="N284" s="10"/>
-      <c r="O284" s="5"/>
+      <c r="N284" s="5"/>
+      <c r="O284" s="10"/>
       <c r="P284" s="5"/>
-      <c r="Q284" s="9"/>
-    </row>
-    <row r="285" spans="1:17">
+      <c r="Q284" s="5"/>
+      <c r="R284" s="9"/>
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -8016,12 +8330,13 @@
       <c r="K285" s="5"/>
       <c r="L285" s="5"/>
       <c r="M285" s="5"/>
-      <c r="N285" s="10"/>
-      <c r="O285" s="5"/>
+      <c r="N285" s="5"/>
+      <c r="O285" s="10"/>
       <c r="P285" s="5"/>
-      <c r="Q285" s="9"/>
-    </row>
-    <row r="286" spans="1:17">
+      <c r="Q285" s="5"/>
+      <c r="R285" s="9"/>
+    </row>
+    <row r="286" spans="1:18">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -8035,12 +8350,13 @@
       <c r="K286" s="5"/>
       <c r="L286" s="5"/>
       <c r="M286" s="5"/>
-      <c r="N286" s="10"/>
-      <c r="O286" s="5"/>
+      <c r="N286" s="5"/>
+      <c r="O286" s="10"/>
       <c r="P286" s="5"/>
-      <c r="Q286" s="9"/>
-    </row>
-    <row r="287" spans="1:17">
+      <c r="Q286" s="5"/>
+      <c r="R286" s="9"/>
+    </row>
+    <row r="287" spans="1:18">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -8054,12 +8370,13 @@
       <c r="K287" s="5"/>
       <c r="L287" s="5"/>
       <c r="M287" s="5"/>
-      <c r="N287" s="10"/>
-      <c r="O287" s="5"/>
+      <c r="N287" s="5"/>
+      <c r="O287" s="10"/>
       <c r="P287" s="5"/>
-      <c r="Q287" s="9"/>
-    </row>
-    <row r="288" spans="1:17">
+      <c r="Q287" s="5"/>
+      <c r="R287" s="9"/>
+    </row>
+    <row r="288" spans="1:18">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -8073,12 +8390,13 @@
       <c r="K288" s="5"/>
       <c r="L288" s="5"/>
       <c r="M288" s="5"/>
-      <c r="N288" s="10"/>
-      <c r="O288" s="5"/>
+      <c r="N288" s="5"/>
+      <c r="O288" s="10"/>
       <c r="P288" s="5"/>
-      <c r="Q288" s="9"/>
-    </row>
-    <row r="289" spans="1:17">
+      <c r="Q288" s="5"/>
+      <c r="R288" s="9"/>
+    </row>
+    <row r="289" spans="1:18">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -8092,12 +8410,13 @@
       <c r="K289" s="5"/>
       <c r="L289" s="5"/>
       <c r="M289" s="5"/>
-      <c r="N289" s="10"/>
-      <c r="O289" s="5"/>
+      <c r="N289" s="5"/>
+      <c r="O289" s="10"/>
       <c r="P289" s="5"/>
-      <c r="Q289" s="9"/>
-    </row>
-    <row r="290" spans="1:17">
+      <c r="Q289" s="5"/>
+      <c r="R289" s="9"/>
+    </row>
+    <row r="290" spans="1:18">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8111,12 +8430,13 @@
       <c r="K290" s="5"/>
       <c r="L290" s="5"/>
       <c r="M290" s="5"/>
-      <c r="N290" s="10"/>
-      <c r="O290" s="5"/>
+      <c r="N290" s="5"/>
+      <c r="O290" s="10"/>
       <c r="P290" s="5"/>
-      <c r="Q290" s="9"/>
-    </row>
-    <row r="291" spans="1:17">
+      <c r="Q290" s="5"/>
+      <c r="R290" s="9"/>
+    </row>
+    <row r="291" spans="1:18">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -8130,12 +8450,13 @@
       <c r="K291" s="5"/>
       <c r="L291" s="5"/>
       <c r="M291" s="5"/>
-      <c r="N291" s="10"/>
-      <c r="O291" s="5"/>
+      <c r="N291" s="5"/>
+      <c r="O291" s="10"/>
       <c r="P291" s="5"/>
-      <c r="Q291" s="9"/>
-    </row>
-    <row r="292" spans="1:17">
+      <c r="Q291" s="5"/>
+      <c r="R291" s="9"/>
+    </row>
+    <row r="292" spans="1:18">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -8149,12 +8470,13 @@
       <c r="K292" s="5"/>
       <c r="L292" s="5"/>
       <c r="M292" s="5"/>
-      <c r="N292" s="10"/>
-      <c r="O292" s="5"/>
+      <c r="N292" s="5"/>
+      <c r="O292" s="10"/>
       <c r="P292" s="5"/>
-      <c r="Q292" s="9"/>
-    </row>
-    <row r="293" spans="1:17">
+      <c r="Q292" s="5"/>
+      <c r="R292" s="9"/>
+    </row>
+    <row r="293" spans="1:18">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -8168,12 +8490,13 @@
       <c r="K293" s="5"/>
       <c r="L293" s="5"/>
       <c r="M293" s="5"/>
-      <c r="N293" s="10"/>
-      <c r="O293" s="5"/>
+      <c r="N293" s="5"/>
+      <c r="O293" s="10"/>
       <c r="P293" s="5"/>
-      <c r="Q293" s="9"/>
-    </row>
-    <row r="294" spans="1:17">
+      <c r="Q293" s="5"/>
+      <c r="R293" s="9"/>
+    </row>
+    <row r="294" spans="1:18">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -8187,12 +8510,13 @@
       <c r="K294" s="5"/>
       <c r="L294" s="5"/>
       <c r="M294" s="5"/>
-      <c r="N294" s="10"/>
-      <c r="O294" s="5"/>
+      <c r="N294" s="5"/>
+      <c r="O294" s="10"/>
       <c r="P294" s="5"/>
-      <c r="Q294" s="9"/>
-    </row>
-    <row r="295" spans="1:17">
+      <c r="Q294" s="5"/>
+      <c r="R294" s="9"/>
+    </row>
+    <row r="295" spans="1:18">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -8206,12 +8530,13 @@
       <c r="K295" s="5"/>
       <c r="L295" s="5"/>
       <c r="M295" s="5"/>
-      <c r="N295" s="10"/>
-      <c r="O295" s="5"/>
+      <c r="N295" s="5"/>
+      <c r="O295" s="10"/>
       <c r="P295" s="5"/>
-      <c r="Q295" s="9"/>
-    </row>
-    <row r="296" spans="1:17">
+      <c r="Q295" s="5"/>
+      <c r="R295" s="9"/>
+    </row>
+    <row r="296" spans="1:18">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -8225,12 +8550,13 @@
       <c r="K296" s="5"/>
       <c r="L296" s="5"/>
       <c r="M296" s="5"/>
-      <c r="N296" s="10"/>
-      <c r="O296" s="5"/>
+      <c r="N296" s="5"/>
+      <c r="O296" s="10"/>
       <c r="P296" s="5"/>
-      <c r="Q296" s="9"/>
-    </row>
-    <row r="297" spans="1:17">
+      <c r="Q296" s="5"/>
+      <c r="R296" s="9"/>
+    </row>
+    <row r="297" spans="1:18">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -8244,15 +8570,16 @@
       <c r="K297" s="5"/>
       <c r="L297" s="5"/>
       <c r="M297" s="5"/>
-      <c r="N297" s="10"/>
-      <c r="O297" s="5"/>
+      <c r="N297" s="5"/>
+      <c r="O297" s="10"/>
       <c r="P297" s="5"/>
-      <c r="Q297" s="9"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="S1:AJ1"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="T1:AK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
